--- a/counts/ALS Mice/new filtering/tg2-tg3/glia/KEGG.xlsx
+++ b/counts/ALS Mice/new filtering/tg2-tg3/glia/KEGG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="403">
   <si>
     <t>ID</t>
   </si>
@@ -123,15 +123,15 @@
     <t>mmu05145</t>
   </si>
   <si>
+    <t>mmu04630</t>
+  </si>
+  <si>
     <t>mmu05202</t>
   </si>
   <si>
     <t>mmu05132</t>
   </si>
   <si>
-    <t>mmu04630</t>
-  </si>
-  <si>
     <t>mmu05168</t>
   </si>
   <si>
@@ -231,12 +231,12 @@
     <t>mmu05210</t>
   </si>
   <si>
+    <t>mmu00052</t>
+  </si>
+  <si>
     <t>mmu05320</t>
   </si>
   <si>
-    <t>mmu00052</t>
-  </si>
-  <si>
     <t>mmu05146</t>
   </si>
   <si>
@@ -333,15 +333,15 @@
     <t>Toxoplasmosis</t>
   </si>
   <si>
+    <t>Jak-STAT signaling pathway</t>
+  </si>
+  <si>
     <t>Transcriptional misregulation in cancer</t>
   </si>
   <si>
     <t>Salmonella infection</t>
   </si>
   <si>
-    <t>Jak-STAT signaling pathway</t>
-  </si>
-  <si>
     <t>Herpes simplex infection</t>
   </si>
   <si>
@@ -441,12 +441,12 @@
     <t>Colorectal cancer</t>
   </si>
   <si>
+    <t>Galactose metabolism</t>
+  </si>
+  <si>
     <t>Autoimmune thyroid disease</t>
   </si>
   <si>
-    <t>Galactose metabolism</t>
-  </si>
-  <si>
     <t>Amoebiasis</t>
   </si>
   <si>
@@ -516,178 +516,181 @@
     <t>3/193</t>
   </si>
   <si>
-    <t>128/8116</t>
-  </si>
-  <si>
-    <t>67/8116</t>
-  </si>
-  <si>
-    <t>168/8116</t>
-  </si>
-  <si>
-    <t>182/8116</t>
-  </si>
-  <si>
-    <t>52/8116</t>
-  </si>
-  <si>
-    <t>101/8116</t>
-  </si>
-  <si>
-    <t>72/8116</t>
-  </si>
-  <si>
-    <t>87/8116</t>
-  </si>
-  <si>
-    <t>118/8116</t>
-  </si>
-  <si>
-    <t>104/8116</t>
-  </si>
-  <si>
-    <t>178/8116</t>
-  </si>
-  <si>
-    <t>75/8116</t>
-  </si>
-  <si>
-    <t>99/8116</t>
-  </si>
-  <si>
-    <t>136/8116</t>
-  </si>
-  <si>
-    <t>95/8116</t>
-  </si>
-  <si>
-    <t>195/8116</t>
-  </si>
-  <si>
-    <t>271/8116</t>
-  </si>
-  <si>
-    <t>68/8116</t>
-  </si>
-  <si>
-    <t>124/8116</t>
-  </si>
-  <si>
-    <t>217/8116</t>
-  </si>
-  <si>
-    <t>58/8116</t>
-  </si>
-  <si>
-    <t>115/8116</t>
-  </si>
-  <si>
-    <t>83/8116</t>
-  </si>
-  <si>
-    <t>36/8116</t>
-  </si>
-  <si>
-    <t>108/8116</t>
-  </si>
-  <si>
-    <t>183/8116</t>
-  </si>
-  <si>
-    <t>78/8116</t>
-  </si>
-  <si>
-    <t>165/8116</t>
-  </si>
-  <si>
-    <t>215/8116</t>
-  </si>
-  <si>
-    <t>100/8116</t>
-  </si>
-  <si>
-    <t>49/8116</t>
-  </si>
-  <si>
-    <t>282/8116</t>
-  </si>
-  <si>
-    <t>88/8116</t>
-  </si>
-  <si>
-    <t>34/8116</t>
-  </si>
-  <si>
-    <t>91/8116</t>
-  </si>
-  <si>
-    <t>143/8116</t>
-  </si>
-  <si>
-    <t>220/8116</t>
-  </si>
-  <si>
-    <t>169/8116</t>
-  </si>
-  <si>
-    <t>59/8116</t>
-  </si>
-  <si>
-    <t>102/8116</t>
-  </si>
-  <si>
-    <t>106/8116</t>
-  </si>
-  <si>
-    <t>64/8116</t>
-  </si>
-  <si>
-    <t>65/8116</t>
-  </si>
-  <si>
-    <t>186/8116</t>
-  </si>
-  <si>
-    <t>70/8116</t>
-  </si>
-  <si>
-    <t>103/8116</t>
-  </si>
-  <si>
-    <t>142/8116</t>
-  </si>
-  <si>
-    <t>69/8116</t>
-  </si>
-  <si>
-    <t>147/8116</t>
-  </si>
-  <si>
-    <t>47/8116</t>
-  </si>
-  <si>
-    <t>206/8116</t>
-  </si>
-  <si>
-    <t>177/8116</t>
-  </si>
-  <si>
-    <t>48/8116</t>
-  </si>
-  <si>
-    <t>74/8116</t>
-  </si>
-  <si>
-    <t>79/8116</t>
-  </si>
-  <si>
-    <t>32/8116</t>
-  </si>
-  <si>
-    <t>139/8116</t>
-  </si>
-  <si>
-    <t>61/8116</t>
+    <t>128/8092</t>
+  </si>
+  <si>
+    <t>67/8092</t>
+  </si>
+  <si>
+    <t>168/8092</t>
+  </si>
+  <si>
+    <t>182/8092</t>
+  </si>
+  <si>
+    <t>52/8092</t>
+  </si>
+  <si>
+    <t>101/8092</t>
+  </si>
+  <si>
+    <t>72/8092</t>
+  </si>
+  <si>
+    <t>87/8092</t>
+  </si>
+  <si>
+    <t>118/8092</t>
+  </si>
+  <si>
+    <t>104/8092</t>
+  </si>
+  <si>
+    <t>178/8092</t>
+  </si>
+  <si>
+    <t>75/8092</t>
+  </si>
+  <si>
+    <t>99/8092</t>
+  </si>
+  <si>
+    <t>136/8092</t>
+  </si>
+  <si>
+    <t>95/8092</t>
+  </si>
+  <si>
+    <t>195/8092</t>
+  </si>
+  <si>
+    <t>271/8092</t>
+  </si>
+  <si>
+    <t>68/8092</t>
+  </si>
+  <si>
+    <t>124/8092</t>
+  </si>
+  <si>
+    <t>217/8092</t>
+  </si>
+  <si>
+    <t>58/8092</t>
+  </si>
+  <si>
+    <t>115/8092</t>
+  </si>
+  <si>
+    <t>83/8092</t>
+  </si>
+  <si>
+    <t>36/8092</t>
+  </si>
+  <si>
+    <t>108/8092</t>
+  </si>
+  <si>
+    <t>159/8092</t>
+  </si>
+  <si>
+    <t>183/8092</t>
+  </si>
+  <si>
+    <t>78/8092</t>
+  </si>
+  <si>
+    <t>215/8092</t>
+  </si>
+  <si>
+    <t>100/8092</t>
+  </si>
+  <si>
+    <t>49/8092</t>
+  </si>
+  <si>
+    <t>282/8092</t>
+  </si>
+  <si>
+    <t>88/8092</t>
+  </si>
+  <si>
+    <t>34/8092</t>
+  </si>
+  <si>
+    <t>91/8092</t>
+  </si>
+  <si>
+    <t>143/8092</t>
+  </si>
+  <si>
+    <t>220/8092</t>
+  </si>
+  <si>
+    <t>169/8092</t>
+  </si>
+  <si>
+    <t>59/8092</t>
+  </si>
+  <si>
+    <t>102/8092</t>
+  </si>
+  <si>
+    <t>105/8092</t>
+  </si>
+  <si>
+    <t>64/8092</t>
+  </si>
+  <si>
+    <t>65/8092</t>
+  </si>
+  <si>
+    <t>186/8092</t>
+  </si>
+  <si>
+    <t>70/8092</t>
+  </si>
+  <si>
+    <t>103/8092</t>
+  </si>
+  <si>
+    <t>142/8092</t>
+  </si>
+  <si>
+    <t>69/8092</t>
+  </si>
+  <si>
+    <t>147/8092</t>
+  </si>
+  <si>
+    <t>47/8092</t>
+  </si>
+  <si>
+    <t>206/8092</t>
+  </si>
+  <si>
+    <t>177/8092</t>
+  </si>
+  <si>
+    <t>48/8092</t>
+  </si>
+  <si>
+    <t>74/8092</t>
+  </si>
+  <si>
+    <t>32/8092</t>
+  </si>
+  <si>
+    <t>79/8092</t>
+  </si>
+  <si>
+    <t>106/8092</t>
+  </si>
+  <si>
+    <t>139/8092</t>
+  </si>
+  <si>
+    <t>61/8092</t>
   </si>
   <si>
     <t>17972/17060/14131/12702/12229/22177/21682/14284/16175/14130/17970/83433/20963/14281/18035/15979/17969/14129/21812/13057/14282/16822/16391/20375</t>
@@ -771,15 +774,15 @@
     <t>16145/15002/21898/16154/11796/24088/11689/18035/30955/15979</t>
   </si>
   <si>
+    <t>12984/12983/12702/16154/60504/12986/16194/12575/15979/15170/16197/16391</t>
+  </si>
+  <si>
     <t>12475/56458/80859/12606/17095/11796/15446/12575/12394/12524/18792/14129/20375</t>
   </si>
   <si>
     <t>12475/21898/22376/66824/16175/14281/15979/20302</t>
   </si>
   <si>
-    <t>12984/12983/12702/16154/60504/12986/16194/12575/15979/15170/16197/16391</t>
-  </si>
-  <si>
     <t>15019/14972/15042/12702/81897/15002/230073/21354/24088/71586/14281/18035/15979/16391</t>
   </si>
   <si>
@@ -999,12 +1002,12 @@
     <t>mmu05206</t>
   </si>
   <si>
+    <t>mmu04151</t>
+  </si>
+  <si>
     <t>mmu05165</t>
   </si>
   <si>
-    <t>mmu04151</t>
-  </si>
-  <si>
     <t>MAPK signaling pathway</t>
   </si>
   <si>
@@ -1110,97 +1113,97 @@
     <t>MicroRNAs in cancer</t>
   </si>
   <si>
+    <t>PI3K-Akt signaling pathway</t>
+  </si>
+  <si>
     <t>Human papillomavirus infection</t>
   </si>
   <si>
-    <t>PI3K-Akt signaling pathway</t>
-  </si>
-  <si>
     <t>2/4</t>
   </si>
   <si>
     <t>1/4</t>
   </si>
   <si>
-    <t>252/8116</t>
-  </si>
-  <si>
-    <t>18/8116</t>
-  </si>
-  <si>
-    <t>25/8116</t>
-  </si>
-  <si>
-    <t>33/8116</t>
-  </si>
-  <si>
-    <t>35/8116</t>
-  </si>
-  <si>
-    <t>45/8116</t>
-  </si>
-  <si>
-    <t>50/8116</t>
-  </si>
-  <si>
-    <t>62/8116</t>
-  </si>
-  <si>
-    <t>84/8116</t>
-  </si>
-  <si>
-    <t>89/8116</t>
-  </si>
-  <si>
-    <t>96/8116</t>
-  </si>
-  <si>
-    <t>97/8116</t>
-  </si>
-  <si>
-    <t>114/8116</t>
-  </si>
-  <si>
-    <t>125/8116</t>
-  </si>
-  <si>
-    <t>129/8116</t>
-  </si>
-  <si>
-    <t>132/8116</t>
-  </si>
-  <si>
-    <t>133/8116</t>
-  </si>
-  <si>
-    <t>153/8116</t>
-  </si>
-  <si>
-    <t>167/8116</t>
-  </si>
-  <si>
-    <t>199/8116</t>
-  </si>
-  <si>
-    <t>213/8116</t>
-  </si>
-  <si>
-    <t>214/8116</t>
-  </si>
-  <si>
-    <t>237/8116</t>
-  </si>
-  <si>
-    <t>270/8116</t>
-  </si>
-  <si>
-    <t>281/8116</t>
-  </si>
-  <si>
-    <t>350/8116</t>
-  </si>
-  <si>
-    <t>355/8116</t>
+    <t>252/8092</t>
+  </si>
+  <si>
+    <t>18/8092</t>
+  </si>
+  <si>
+    <t>25/8092</t>
+  </si>
+  <si>
+    <t>33/8092</t>
+  </si>
+  <si>
+    <t>35/8092</t>
+  </si>
+  <si>
+    <t>45/8092</t>
+  </si>
+  <si>
+    <t>50/8092</t>
+  </si>
+  <si>
+    <t>62/8092</t>
+  </si>
+  <si>
+    <t>84/8092</t>
+  </si>
+  <si>
+    <t>89/8092</t>
+  </si>
+  <si>
+    <t>96/8092</t>
+  </si>
+  <si>
+    <t>97/8092</t>
+  </si>
+  <si>
+    <t>114/8092</t>
+  </si>
+  <si>
+    <t>125/8092</t>
+  </si>
+  <si>
+    <t>129/8092</t>
+  </si>
+  <si>
+    <t>132/8092</t>
+  </si>
+  <si>
+    <t>133/8092</t>
+  </si>
+  <si>
+    <t>153/8092</t>
+  </si>
+  <si>
+    <t>167/8092</t>
+  </si>
+  <si>
+    <t>199/8092</t>
+  </si>
+  <si>
+    <t>213/8092</t>
+  </si>
+  <si>
+    <t>214/8092</t>
+  </si>
+  <si>
+    <t>228/8092</t>
+  </si>
+  <si>
+    <t>270/8092</t>
+  </si>
+  <si>
+    <t>281/8092</t>
+  </si>
+  <si>
+    <t>346/8092</t>
+  </si>
+  <si>
+    <t>350/8092</t>
   </si>
   <si>
     <t>18783/16416</t>
@@ -1316,16 +1319,16 @@
         <v>167</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8109229187609036E-15</v>
+        <v>1.9321418142694674E-15</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8572658169607245E-13</v>
+        <v>4.076819228108576E-13</v>
       </c>
       <c r="H2" t="n">
-        <v>2.78310259093781E-13</v>
+        <v>2.928720223734772E-13</v>
       </c>
       <c r="I2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J2" t="n">
         <v>24.0</v>
@@ -1348,16 +1351,16 @@
         <v>168</v>
       </c>
       <c r="F3" t="n">
-        <v>2.178937260953231E-12</v>
+        <v>2.2774956947595566E-12</v>
       </c>
       <c r="G3" t="n">
-        <v>2.3205681829151908E-10</v>
+        <v>2.4027579579713323E-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.6743412636798513E-10</v>
+        <v>1.726102000238822E-10</v>
       </c>
       <c r="I3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J3" t="n">
         <v>16.0</v>
@@ -1380,16 +1383,16 @@
         <v>169</v>
       </c>
       <c r="F4" t="n">
-        <v>7.411167632299373E-12</v>
+        <v>7.863517084320304E-12</v>
       </c>
       <c r="G4" t="n">
-        <v>5.261929018932554E-10</v>
+        <v>5.530673682638613E-10</v>
       </c>
       <c r="H4" t="n">
-        <v>3.796598155493714E-10</v>
+        <v>3.9731454741828907E-10</v>
       </c>
       <c r="I4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J4" t="n">
         <v>23.0</v>
@@ -1412,16 +1415,16 @@
         <v>170</v>
       </c>
       <c r="F5" t="n">
-        <v>1.632004523609407E-9</v>
+        <v>1.7195414031836503E-9</v>
       </c>
       <c r="G5" t="n">
-        <v>8.690424088220093E-8</v>
+        <v>9.070580901793755E-8</v>
       </c>
       <c r="H5" t="n">
-        <v>6.270333169657196E-8</v>
+        <v>6.516156896274886E-8</v>
       </c>
       <c r="I5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J5" t="n">
         <v>21.0</v>
@@ -1444,16 +1447,16 @@
         <v>171</v>
       </c>
       <c r="F6" t="n">
-        <v>2.086650253014809E-9</v>
+        <v>2.156794371422741E-9</v>
       </c>
       <c r="G6" t="n">
-        <v>8.889130077843088E-8</v>
+        <v>9.101672247403967E-8</v>
       </c>
       <c r="H6" t="n">
-        <v>6.413703935582362E-8</v>
+        <v>6.53849241020789E-8</v>
       </c>
       <c r="I6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J6" t="n">
         <v>12.0</v>
@@ -1476,16 +1479,16 @@
         <v>172</v>
       </c>
       <c r="F7" t="n">
-        <v>9.650055961898392E-8</v>
+        <v>1.0004266841109806E-7</v>
       </c>
       <c r="G7" t="n">
-        <v>3.026865273190772E-6</v>
+        <v>3.1018342780734205E-6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.183950234177676E-6</v>
+        <v>2.2283069894865185E-6</v>
       </c>
       <c r="I7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J7" t="n">
         <v>14.0</v>
@@ -1508,16 +1511,16 @@
         <v>173</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0244961122342831E-7</v>
+        <v>1.0576154406485875E-7</v>
       </c>
       <c r="G8" t="n">
-        <v>3.026865273190772E-6</v>
+        <v>3.1018342780734205E-6</v>
       </c>
       <c r="H8" t="n">
-        <v>2.183950234177676E-6</v>
+        <v>2.2283069894865185E-6</v>
       </c>
       <c r="I8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J8" t="n">
         <v>12.0</v>
@@ -1540,16 +1543,16 @@
         <v>174</v>
       </c>
       <c r="F9" t="n">
-        <v>1.1368508068322149E-7</v>
+        <v>1.1760509111178846E-7</v>
       </c>
       <c r="G9" t="n">
-        <v>3.026865273190772E-6</v>
+        <v>3.1018342780734205E-6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.183950234177676E-6</v>
+        <v>2.2283069894865185E-6</v>
       </c>
       <c r="I9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J9" t="n">
         <v>13.0</v>
@@ -1572,16 +1575,16 @@
         <v>175</v>
       </c>
       <c r="F10" t="n">
-        <v>6.88560122646739E-7</v>
+        <v>7.1307548848698E-7</v>
       </c>
       <c r="G10" t="n">
-        <v>1.6295922902639492E-5</v>
+        <v>1.6717658674528087E-5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.1757868760985253E-5</v>
+        <v>1.2009692437675455E-5</v>
       </c>
       <c r="I10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J10" t="n">
         <v>14.0</v>
@@ -1604,16 +1607,16 @@
         <v>176</v>
       </c>
       <c r="F11" t="n">
-        <v>9.537950602868026E-7</v>
+        <v>9.856369874685504E-7</v>
       </c>
       <c r="G11" t="n">
-        <v>1.919740987767334E-5</v>
+        <v>1.979935684046735E-5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.3851355780283212E-5</v>
+        <v>1.4223533973695678E-5</v>
       </c>
       <c r="I11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J11" t="n">
         <v>13.0</v>
@@ -1636,16 +1639,16 @@
         <v>177</v>
       </c>
       <c r="F12" t="n">
-        <v>9.91415533588764E-7</v>
+        <v>1.0321939585077765E-6</v>
       </c>
       <c r="G12" t="n">
-        <v>1.919740987767334E-5</v>
+        <v>1.979935684046735E-5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.3851355780283212E-5</v>
+        <v>1.4223533973695678E-5</v>
       </c>
       <c r="I12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J12" t="n">
         <v>17.0</v>
@@ -1668,16 +1671,16 @@
         <v>178</v>
       </c>
       <c r="F13" t="n">
-        <v>1.3427150819743814E-6</v>
+        <v>1.381691515820877E-6</v>
       </c>
       <c r="G13" t="n">
-        <v>2.383319270504527E-5</v>
+        <v>2.4294742486517088E-5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.7196175611250852E-5</v>
+        <v>1.7452945463000555E-5</v>
       </c>
       <c r="I13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J13" t="n">
         <v>11.0</v>
@@ -1700,16 +1703,16 @@
         <v>169</v>
       </c>
       <c r="F14" t="n">
-        <v>2.1732039866673663E-6</v>
+        <v>2.257157205881534E-6</v>
       </c>
       <c r="G14" t="n">
-        <v>3.560711147385762E-5</v>
+        <v>3.663539772623105E-5</v>
       </c>
       <c r="H14" t="n">
-        <v>2.5691318384893565E-5</v>
+        <v>2.6318270254813033E-5</v>
       </c>
       <c r="I14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J14" t="n">
         <v>16.0</v>
@@ -1732,16 +1735,16 @@
         <v>179</v>
       </c>
       <c r="F15" t="n">
-        <v>3.5161325028511394E-6</v>
+        <v>3.6237096865471387E-6</v>
       </c>
       <c r="G15" t="n">
-        <v>5.349544450766376E-5</v>
+        <v>5.461448170438902E-5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.859814627189973E-5</v>
+        <v>3.923414998968331E-5</v>
       </c>
       <c r="I15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J15" t="n">
         <v>12.0</v>
@@ -1764,16 +1767,16 @@
         <v>180</v>
       </c>
       <c r="F16" t="n">
-        <v>3.854074418594329E-6</v>
+        <v>3.986807931309189E-6</v>
       </c>
       <c r="G16" t="n">
-        <v>5.4727856744039475E-5</v>
+        <v>5.6081098233749254E-5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.9487358955422606E-5</v>
+        <v>4.028774330586128E-5</v>
       </c>
       <c r="I16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J16" t="n">
         <v>14.0</v>
@@ -1796,16 +1799,16 @@
         <v>181</v>
       </c>
       <c r="F17" t="n">
-        <v>1.4143211783017833E-5</v>
+        <v>1.4535778609662405E-5</v>
       </c>
       <c r="G17" t="n">
-        <v>1.868456820022958E-4</v>
+        <v>1.9169058041492297E-4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.3481329168438445E-4</v>
+        <v>1.377073763020649E-4</v>
       </c>
       <c r="I17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J17" t="n">
         <v>11.0</v>
@@ -1828,16 +1831,16 @@
         <v>182</v>
       </c>
       <c r="F18" t="n">
-        <v>1.4912566169197317E-5</v>
+        <v>1.546245596298592E-5</v>
       </c>
       <c r="G18" t="n">
-        <v>1.868456820022958E-4</v>
+        <v>1.9191636518764877E-4</v>
       </c>
       <c r="H18" t="n">
-        <v>1.3481329168438445E-4</v>
+        <v>1.378695763882336E-4</v>
       </c>
       <c r="I18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J18" t="n">
         <v>16.0</v>
@@ -1860,16 +1863,16 @@
         <v>183</v>
       </c>
       <c r="F19" t="n">
-        <v>2.2251984135996797E-5</v>
+        <v>2.3172414943192515E-5</v>
       </c>
       <c r="G19" t="n">
-        <v>2.633151456092954E-4</v>
+        <v>2.716321973896456E-4</v>
       </c>
       <c r="H19" t="n">
-        <v>1.8998770081026507E-4</v>
+        <v>1.951361258374107E-4</v>
       </c>
       <c r="I19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J19" t="n">
         <v>19.0</v>
@@ -1892,16 +1895,16 @@
         <v>184</v>
       </c>
       <c r="F20" t="n">
-        <v>2.9597448505257372E-5</v>
+        <v>3.0287297826088085E-5</v>
       </c>
       <c r="G20" t="n">
-        <v>3.318029753484116E-4</v>
+        <v>3.3634841270024137E-4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.3940318458546132E-4</v>
+        <v>2.4162719595327892E-4</v>
       </c>
       <c r="I20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J20" t="n">
         <v>9.0</v>
@@ -1924,16 +1927,16 @@
         <v>185</v>
       </c>
       <c r="F21" t="n">
-        <v>3.604406574903976E-5</v>
+        <v>3.708935559250869E-5</v>
       </c>
       <c r="G21" t="n">
-        <v>3.8386930022727344E-4</v>
+        <v>3.912927015009667E-4</v>
       </c>
       <c r="H21" t="n">
-        <v>2.7697018943998976E-4</v>
+        <v>2.810982739642764E-4</v>
       </c>
       <c r="I21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J21" t="n">
         <v>12.0</v>
@@ -1956,16 +1959,16 @@
         <v>186</v>
       </c>
       <c r="F22" t="n">
-        <v>5.5651481150106885E-5</v>
+        <v>5.762416265756676E-5</v>
       </c>
       <c r="G22" t="n">
-        <v>5.644650230939413E-4</v>
+        <v>5.78985634321266E-4</v>
       </c>
       <c r="H22" t="n">
-        <v>4.072739973892534E-4</v>
+        <v>4.1593380564860225E-4</v>
       </c>
       <c r="I22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J22" t="n">
         <v>16.0</v>
@@ -1988,16 +1991,16 @@
         <v>187</v>
       </c>
       <c r="F23" t="n">
-        <v>6.121118088946516E-5</v>
+        <v>6.248871135906845E-5</v>
       </c>
       <c r="G23" t="n">
-        <v>5.926355240661854E-4</v>
+        <v>5.993235498528838E-4</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2759963683549826E-4</v>
+        <v>4.3054423137348606E-4</v>
       </c>
       <c r="I23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J23" t="n">
         <v>8.0</v>
@@ -2020,16 +2023,16 @@
         <v>188</v>
       </c>
       <c r="F24" t="n">
-        <v>8.521379064695398E-5</v>
+        <v>8.747129577840322E-5</v>
       </c>
       <c r="G24" t="n">
-        <v>7.891538003391824E-4</v>
+        <v>8.024540612714383E-4</v>
       </c>
       <c r="H24" t="n">
-        <v>5.693919191970381E-4</v>
+        <v>5.764698669148772E-4</v>
       </c>
       <c r="I24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J24" t="n">
         <v>11.0</v>
@@ -2052,16 +2055,16 @@
         <v>189</v>
       </c>
       <c r="F25" t="n">
-        <v>1.4522952910298717E-4</v>
+        <v>1.4847917384246085E-4</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001288912070789011</v>
+        <v>0.0013053794033649683</v>
       </c>
       <c r="H25" t="n">
-        <v>9.299785635542161E-4</v>
+        <v>9.377632032155424E-4</v>
       </c>
       <c r="I25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J25" t="n">
         <v>9.0</v>
@@ -2084,16 +2087,16 @@
         <v>190</v>
       </c>
       <c r="F26" t="n">
-        <v>1.7977685035936385E-4</v>
+        <v>1.8267590154920932E-4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00153169876506178</v>
+        <v>0.0015417846090753265</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0011051545327354579</v>
+        <v>0.0011075928346562587</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J26" t="n">
         <v>6.0</v>
@@ -2116,16 +2119,16 @@
         <v>174</v>
       </c>
       <c r="F27" t="n">
-        <v>2.0883998183737965E-4</v>
+        <v>2.134613065824415E-4</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001710881389667764</v>
+        <v>0.0017323206034190444</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0012344387590387624</v>
+        <v>0.001244470775217473</v>
       </c>
       <c r="I27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J27" t="n">
         <v>9.0</v>
@@ -2148,16 +2151,16 @@
         <v>191</v>
       </c>
       <c r="F28" t="n">
-        <v>2.347206257954028E-4</v>
+        <v>2.4032378905504325E-4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0018516849368304</v>
+        <v>0.0018780859070597824</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001336031632207751</v>
+        <v>0.001349186184168664</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J28" t="n">
         <v>10.0</v>
@@ -2174,25 +2177,25 @@
         <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
         <v>192</v>
       </c>
       <c r="F29" t="n">
-        <v>4.041614886158102E-4</v>
+        <v>4.0075283373499824E-4</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0030745141812559846</v>
+        <v>0.003019958854217308</v>
       </c>
       <c r="H29" t="n">
-        <v>0.002218329975109334</v>
+        <v>0.002169489024730818</v>
       </c>
       <c r="I29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J29" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="30">
@@ -2206,25 +2209,25 @@
         <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E30" t="s">
         <v>193</v>
       </c>
       <c r="F30" t="n">
-        <v>4.992118719653184E-4</v>
+        <v>4.156130114551101E-4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0036666251285728557</v>
+        <v>0.0030239429454147664</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0026455511182191106</v>
+        <v>0.0021723511306546593</v>
       </c>
       <c r="I30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J30" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="31">
@@ -2238,25 +2241,25 @@
         <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E31" t="s">
         <v>194</v>
       </c>
       <c r="F31" t="n">
-        <v>5.462713105021591E-4</v>
+        <v>5.09019855842717E-4</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0038785263045653293</v>
+        <v>0.0035801063194271093</v>
       </c>
       <c r="H31" t="n">
-        <v>0.002798442502923342</v>
+        <v>0.0025718897979421494</v>
       </c>
       <c r="I31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J31" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="32">
@@ -2276,16 +2279,16 @@
         <v>195</v>
       </c>
       <c r="F32" t="n">
-        <v>5.875317109051016E-4</v>
+        <v>6.047907183991198E-4</v>
       </c>
       <c r="G32" t="n">
-        <v>0.003954255260703299</v>
+        <v>0.004000670650118514</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0028530826195338854</v>
+        <v>0.002874016331339816</v>
       </c>
       <c r="I32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J32" t="n">
         <v>14.0</v>
@@ -2308,16 +2311,16 @@
         <v>196</v>
       </c>
       <c r="F33" t="n">
-        <v>5.940665180399322E-4</v>
+        <v>6.067367810606277E-4</v>
       </c>
       <c r="G33" t="n">
-        <v>0.003954255260703299</v>
+        <v>0.004000670650118514</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0028530826195338854</v>
+        <v>0.002874016331339816</v>
       </c>
       <c r="I33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J33" t="n">
         <v>9.0</v>
@@ -2340,16 +2343,16 @@
         <v>197</v>
       </c>
       <c r="F34" t="n">
-        <v>9.98921984589318E-4</v>
+        <v>0.0010142621821122447</v>
       </c>
       <c r="G34" t="n">
-        <v>0.006447587355076506</v>
+        <v>0.006485130921990412</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0046520768660299975</v>
+        <v>0.0046588119369749045</v>
       </c>
       <c r="I34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J34" t="n">
         <v>6.0</v>
@@ -2372,16 +2375,16 @@
         <v>198</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0010840460296336867</v>
+        <v>0.0011179356134692901</v>
       </c>
       <c r="G35" t="n">
-        <v>0.006783825383703491</v>
+        <v>0.006809012251665619</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0048946800396378045</v>
+        <v>0.004891482984484157</v>
       </c>
       <c r="I35" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J35" t="n">
         <v>16.0</v>
@@ -2404,16 +2407,16 @@
         <v>199</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0011182194448711186</v>
+        <v>0.0011395110380194844</v>
       </c>
       <c r="G36" t="n">
-        <v>0.006783825383703491</v>
+        <v>0.006809012251665619</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0048946800396378045</v>
+        <v>0.004891482984484157</v>
       </c>
       <c r="I36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J36" t="n">
         <v>8.0</v>
@@ -2436,16 +2439,16 @@
         <v>200</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00114656203668228</v>
+        <v>0.0011617272088149872</v>
       </c>
       <c r="G37" t="n">
-        <v>0.006783825383703491</v>
+        <v>0.006809012251665619</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0048946800396378045</v>
+        <v>0.004891482984484157</v>
       </c>
       <c r="I37" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J37" t="n">
         <v>5.0</v>
@@ -2468,16 +2471,16 @@
         <v>201</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0013917047170486547</v>
+        <v>0.001417951598213705</v>
       </c>
       <c r="G38" t="n">
-        <v>0.008011705533280095</v>
+        <v>0.008086156411434911</v>
       </c>
       <c r="H38" t="n">
-        <v>0.005780622722307357</v>
+        <v>0.005808962450719019</v>
       </c>
       <c r="I38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J38" t="n">
         <v>8.0</v>
@@ -2500,16 +2503,16 @@
         <v>180</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0014511646164719128</v>
+        <v>0.0014832926098397683</v>
       </c>
       <c r="G39" t="n">
-        <v>0.008134159560750458</v>
+        <v>0.008236177386215555</v>
       </c>
       <c r="H39" t="n">
-        <v>0.005868976011216047</v>
+        <v>0.005916735064180795</v>
       </c>
       <c r="I39" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J39" t="n">
         <v>10.0</v>
@@ -2532,16 +2535,16 @@
         <v>202</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0021129816432668962</v>
+        <v>0.002158854852002093</v>
       </c>
       <c r="G40" t="n">
-        <v>0.011540130513226896</v>
+        <v>0.011679958301857479</v>
       </c>
       <c r="H40" t="n">
-        <v>0.008326459376976163</v>
+        <v>0.008390690922761172</v>
       </c>
       <c r="I40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J40" t="n">
         <v>10.0</v>
@@ -2564,16 +2567,16 @@
         <v>203</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0022164856365597023</v>
+        <v>0.0022741279217381714</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01180054599991088</v>
+        <v>0.011960058881456419</v>
       </c>
       <c r="H41" t="n">
-        <v>0.008514354909745434</v>
+        <v>0.008591910595808055</v>
       </c>
       <c r="I41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J41" t="n">
         <v>13.0</v>
@@ -2596,16 +2599,16 @@
         <v>204</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0022714666009218125</v>
+        <v>0.00232399248407447</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01180054599991088</v>
+        <v>0.011960058881456419</v>
       </c>
       <c r="H42" t="n">
-        <v>0.008514354909745434</v>
+        <v>0.008591910595808055</v>
       </c>
       <c r="I42" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J42" t="n">
         <v>11.0</v>
@@ -2628,16 +2631,16 @@
         <v>205</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0026452278290906225</v>
+        <v>0.002684302516234442</v>
       </c>
       <c r="G43" t="n">
-        <v>0.013415083990388156</v>
+        <v>0.013485424545844458</v>
       </c>
       <c r="H43" t="n">
-        <v>0.009679279775619823</v>
+        <v>0.00968770832926716</v>
       </c>
       <c r="I43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J43" t="n">
         <v>6.0</v>
@@ -2660,16 +2663,16 @@
         <v>185</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002720257230906759</v>
+        <v>0.002774296240216439</v>
       </c>
       <c r="G44" t="n">
-        <v>0.013474762562398596</v>
+        <v>0.013613407132224852</v>
       </c>
       <c r="H44" t="n">
-        <v>0.00972233918512575</v>
+        <v>0.009779648925120375</v>
       </c>
       <c r="I44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J44" t="n">
         <v>9.0</v>
@@ -2692,16 +2695,16 @@
         <v>206</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0028777074532632067</v>
+        <v>0.002930078202466284</v>
       </c>
       <c r="G45" t="n">
-        <v>0.013930720171478705</v>
+        <v>0.014051056834554227</v>
       </c>
       <c r="H45" t="n">
-        <v>0.010051322683646608</v>
+        <v>0.010094049309931697</v>
       </c>
       <c r="I45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J45" t="n">
         <v>8.0</v>
@@ -2724,16 +2727,16 @@
         <v>207</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0036518683436263487</v>
+        <v>0.0035068245354674854</v>
       </c>
       <c r="G46" t="n">
-        <v>0.017285510159831385</v>
+        <v>0.01644311059963643</v>
       </c>
       <c r="H46" t="n">
-        <v>0.012471877851916889</v>
+        <v>0.011812461593153635</v>
       </c>
       <c r="I46" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J46" t="n">
         <v>8.0</v>
@@ -2756,16 +2759,16 @@
         <v>208</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0039915296139777425</v>
+        <v>0.004049333234723976</v>
       </c>
       <c r="G47" t="n">
-        <v>0.018482517560375198</v>
+        <v>0.01857411548971215</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0133355451634039</v>
+        <v>0.013343340636161388</v>
       </c>
       <c r="I47" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J47" t="n">
         <v>6.0</v>
@@ -2788,16 +2791,16 @@
         <v>191</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0040949572759700886</v>
+        <v>0.00416801398600349</v>
       </c>
       <c r="G48" t="n">
-        <v>0.018557997867694232</v>
+        <v>0.01871172236269652</v>
       </c>
       <c r="H48" t="n">
-        <v>0.013390005874392676</v>
+        <v>0.013442195162026932</v>
       </c>
       <c r="I48" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J48" t="n">
         <v>8.0</v>
@@ -2820,16 +2823,16 @@
         <v>209</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004312388448159856</v>
+        <v>0.004374589143980886</v>
       </c>
       <c r="G49" t="n">
-        <v>0.019136223738709362</v>
+        <v>0.01922996477874931</v>
       </c>
       <c r="H49" t="n">
-        <v>0.013807208627880242</v>
+        <v>0.013814492033623851</v>
       </c>
       <c r="I49" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J49" t="n">
         <v>6.0</v>
@@ -2852,16 +2855,16 @@
         <v>210</v>
       </c>
       <c r="F50" t="n">
-        <v>0.004744603500838879</v>
+        <v>0.004849368409507913</v>
       </c>
       <c r="G50" t="n">
-        <v>0.020624500932217984</v>
+        <v>0.020881974171554483</v>
       </c>
       <c r="H50" t="n">
-        <v>0.014881033536465658</v>
+        <v>0.015001268549283343</v>
       </c>
       <c r="I50" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J50" t="n">
         <v>11.0</v>
@@ -2884,16 +2887,16 @@
         <v>211</v>
       </c>
       <c r="F51" t="n">
-        <v>0.006209288727234867</v>
+        <v>0.006297059859123231</v>
       </c>
       <c r="G51" t="n">
-        <v>0.026451569978020534</v>
+        <v>0.026573592605500032</v>
       </c>
       <c r="H51" t="n">
-        <v>0.019085392719500858</v>
+        <v>0.019090034099236743</v>
       </c>
       <c r="I51" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J51" t="n">
         <v>6.0</v>
@@ -2916,16 +2919,16 @@
         <v>212</v>
       </c>
       <c r="F52" t="n">
-        <v>0.011196831217867844</v>
+        <v>0.01136677750507103</v>
       </c>
       <c r="G52" t="n">
-        <v>0.046763236262859824</v>
+        <v>0.047027255952352694</v>
       </c>
       <c r="H52" t="n">
-        <v>0.033740709139498566</v>
+        <v>0.03378361116058263</v>
       </c>
       <c r="I52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J52" t="n">
         <v>7.0</v>
@@ -2948,16 +2951,16 @@
         <v>208</v>
       </c>
       <c r="F53" t="n">
-        <v>0.017733845214160535</v>
+        <v>0.01793845259384346</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07264055828108064</v>
+        <v>0.07278872110194173</v>
       </c>
       <c r="H53" t="n">
-        <v>0.05241176925642588</v>
+        <v>0.05229022618448297</v>
       </c>
       <c r="I53" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J53" t="n">
         <v>5.0</v>
@@ -2980,16 +2983,16 @@
         <v>213</v>
       </c>
       <c r="F54" t="n">
-        <v>0.019787485047840236</v>
+        <v>0.020101023885901355</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0795232889658485</v>
+        <v>0.08002483094198463</v>
       </c>
       <c r="H54" t="n">
-        <v>0.057377811658086884</v>
+        <v>0.05748852908778144</v>
       </c>
       <c r="I54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J54" t="n">
         <v>8.0</v>
@@ -3012,16 +3015,16 @@
         <v>201</v>
       </c>
       <c r="F55" t="n">
-        <v>0.021009030734192857</v>
+        <v>0.02128096292316097</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0828689545626496</v>
+        <v>0.08315339216272156</v>
       </c>
       <c r="H55" t="n">
-        <v>0.05979178337606545</v>
+        <v>0.05973603627553956</v>
       </c>
       <c r="I55" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J55" t="n">
         <v>6.0</v>
@@ -3044,16 +3047,16 @@
         <v>184</v>
       </c>
       <c r="F56" t="n">
-        <v>0.022483287566678622</v>
+        <v>0.022737756884418696</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0870716409400463</v>
+        <v>0.08723030368386081</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0628241145403843</v>
+        <v>0.06266482280107737</v>
       </c>
       <c r="I56" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J56" t="n">
         <v>5.0</v>
@@ -3076,16 +3079,16 @@
         <v>214</v>
       </c>
       <c r="F57" t="n">
-        <v>0.02378754531573453</v>
+        <v>0.0240554762873552</v>
       </c>
       <c r="G57" t="n">
-        <v>0.08892962896767359</v>
+        <v>0.08946511730219509</v>
       </c>
       <c r="H57" t="n">
-        <v>0.06416469399199577</v>
+        <v>0.06427027633582486</v>
       </c>
       <c r="I57" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J57" t="n">
         <v>5.0</v>
@@ -3108,16 +3111,16 @@
         <v>215</v>
       </c>
       <c r="F58" t="n">
-        <v>0.023798069723743636</v>
+        <v>0.024168301830450805</v>
       </c>
       <c r="G58" t="n">
-        <v>0.08892962896767359</v>
+        <v>0.08946511730219509</v>
       </c>
       <c r="H58" t="n">
-        <v>0.06416469399199577</v>
+        <v>0.06427027633582486</v>
       </c>
       <c r="I58" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J58" t="n">
         <v>8.0</v>
@@ -3140,16 +3143,16 @@
         <v>216</v>
       </c>
       <c r="F59" t="n">
-        <v>0.024949032360248542</v>
+        <v>0.02518728592027163</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08936361832815007</v>
+        <v>0.09000475782258742</v>
       </c>
       <c r="H59" t="n">
-        <v>0.06447782691331808</v>
+        <v>0.0646579452554382</v>
       </c>
       <c r="I59" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J59" t="n">
         <v>4.0</v>
@@ -3172,16 +3175,16 @@
         <v>217</v>
       </c>
       <c r="F60" t="n">
-        <v>0.024995508914085467</v>
+        <v>0.0254436966488</v>
       </c>
       <c r="G60" t="n">
-        <v>0.08936361832815007</v>
+        <v>0.09000475782258742</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06447782691331808</v>
+        <v>0.0646579452554382</v>
       </c>
       <c r="I60" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J60" t="n">
         <v>10.0</v>
@@ -3204,16 +3207,16 @@
         <v>218</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02517285023328171</v>
+        <v>0.02559376999694429</v>
       </c>
       <c r="G61" t="n">
-        <v>0.08936361832815007</v>
+        <v>0.09000475782258742</v>
       </c>
       <c r="H61" t="n">
-        <v>0.06447782691331808</v>
+        <v>0.0646579452554382</v>
       </c>
       <c r="I61" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J61" t="n">
         <v>9.0</v>
@@ -3236,16 +3239,16 @@
         <v>219</v>
       </c>
       <c r="F62" t="n">
-        <v>0.026726567910232892</v>
+        <v>0.0269803834812787</v>
       </c>
       <c r="G62" t="n">
-        <v>0.09332391745704273</v>
+        <v>0.09332558876311157</v>
       </c>
       <c r="H62" t="n">
-        <v>0.06733527031741161</v>
+        <v>0.0670435758637469</v>
       </c>
       <c r="I62" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J62" t="n">
         <v>4.0</v>
@@ -3268,16 +3271,16 @@
         <v>197</v>
       </c>
       <c r="F63" t="n">
-        <v>0.02857818947338965</v>
+        <v>0.028848081985069295</v>
       </c>
       <c r="G63" t="n">
-        <v>0.09817990899729025</v>
+        <v>0.0981765370782197</v>
       </c>
       <c r="H63" t="n">
-        <v>0.07083897560466705</v>
+        <v>0.07052841775636637</v>
       </c>
       <c r="I63" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J63" t="n">
         <v>4.0</v>
@@ -3300,16 +3303,16 @@
         <v>220</v>
       </c>
       <c r="F64" t="n">
-        <v>0.03103759987108359</v>
+        <v>0.031378752515261385</v>
       </c>
       <c r="G64" t="n">
-        <v>0.10493664718318738</v>
+        <v>0.10509391715428813</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0757141116320502</v>
+        <v>0.07549775041265898</v>
       </c>
       <c r="I64" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J64" t="n">
         <v>5.0</v>
@@ -3326,25 +3329,25 @@
         <v>142</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E65" t="s">
         <v>221</v>
       </c>
       <c r="F65" t="n">
-        <v>0.03954172066636095</v>
+        <v>0.039915093922340605</v>
       </c>
       <c r="G65" t="n">
-        <v>0.12983455659245022</v>
+        <v>0.12973477245409418</v>
       </c>
       <c r="H65" t="n">
-        <v>0.09367850389176048</v>
+        <v>0.09319933765721906</v>
       </c>
       <c r="I65" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="J65" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="66">
@@ -3358,25 +3361,25 @@
         <v>143</v>
       </c>
       <c r="D66" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E66" t="s">
         <v>222</v>
       </c>
       <c r="F66" t="n">
-        <v>0.039620874077508285</v>
+        <v>0.039965688196758865</v>
       </c>
       <c r="G66" t="n">
-        <v>0.12983455659245022</v>
+        <v>0.12973477245409418</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09367850389176048</v>
+        <v>0.09319933765721906</v>
       </c>
       <c r="I66" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="J66" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="67">
@@ -3393,19 +3396,19 @@
         <v>161</v>
       </c>
       <c r="E67" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0403051996239988</v>
+        <v>0.04079339939671199</v>
       </c>
       <c r="G67" t="n">
-        <v>0.13007587151381428</v>
+        <v>0.13041526170767015</v>
       </c>
       <c r="H67" t="n">
-        <v>0.09385261794423963</v>
+        <v>0.09368819000201799</v>
       </c>
       <c r="I67" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J67" t="n">
         <v>6.0</v>
@@ -3425,19 +3428,19 @@
         <v>164</v>
       </c>
       <c r="E68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F68" t="n">
-        <v>0.04766077547497237</v>
+        <v>0.04828705998850064</v>
       </c>
       <c r="G68" t="n">
-        <v>0.151518584718942</v>
+        <v>0.15206820384438263</v>
       </c>
       <c r="H68" t="n">
-        <v>0.10932400973049437</v>
+        <v>0.10924330932198105</v>
       </c>
       <c r="I68" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J68" t="n">
         <v>7.0</v>
@@ -3460,16 +3463,16 @@
         <v>213</v>
       </c>
       <c r="F69" t="n">
-        <v>0.05238704015626315</v>
+        <v>0.05306675214248399</v>
       </c>
       <c r="G69" t="n">
-        <v>0.16409469931300075</v>
+        <v>0.16406955605732032</v>
       </c>
       <c r="H69" t="n">
-        <v>0.11839795453273097</v>
+        <v>0.11786488437143491</v>
       </c>
       <c r="I69" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J69" t="n">
         <v>7.0</v>
@@ -3492,16 +3495,16 @@
         <v>190</v>
       </c>
       <c r="F70" t="n">
-        <v>0.053268043559471394</v>
+        <v>0.05365307757324693</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1644361344661943</v>
+        <v>0.16406955605732032</v>
       </c>
       <c r="H70" t="n">
-        <v>0.11864430754664874</v>
+        <v>0.11786488437143491</v>
       </c>
       <c r="I70" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J70" t="n">
         <v>3.0</v>
@@ -3521,19 +3524,19 @@
         <v>165</v>
       </c>
       <c r="E71" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F71" t="n">
-        <v>0.056670661187206664</v>
+        <v>0.057170495282915866</v>
       </c>
       <c r="G71" t="n">
-        <v>0.17244072618392883</v>
+        <v>0.1723282072099321</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1244197974937169</v>
+        <v>0.12379776422165241</v>
       </c>
       <c r="I71" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J71" t="n">
         <v>4.0</v>
@@ -3593,22 +3596,22 @@
         <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
         <v>185</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0013617648799465634</v>
+        <v>0.0013697728586604483</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07489706839706099</v>
+        <v>0.07533750722632465</v>
       </c>
       <c r="H2" t="n">
-        <v>0.038702791324797065</v>
+        <v>0.038930386509296956</v>
       </c>
       <c r="I2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J2" t="n">
         <v>2.0</v>
@@ -3616,31 +3619,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005528290329025416</v>
+        <v>0.005560443466582535</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J3" t="n">
         <v>2.0</v>
@@ -3648,31 +3651,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008843525086044468</v>
+        <v>0.008869671311803384</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
@@ -3680,31 +3683,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01226678349460375</v>
+        <v>0.012303003450053529</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
@@ -3712,31 +3715,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F6" t="n">
-        <v>0.016168212233676926</v>
+        <v>0.01621588066033708</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
@@ -3753,22 +3756,22 @@
         <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E7" t="s">
         <v>200</v>
       </c>
       <c r="F7" t="n">
-        <v>0.016655076906578747</v>
+        <v>0.01670417157451487</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
@@ -3776,31 +3779,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01714176085762731</v>
+        <v>0.017192280697585383</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
@@ -3808,31 +3811,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02199867050350912</v>
+        <v>0.022063383342391885</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
@@ -3840,31 +3843,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F10" t="n">
-        <v>0.024420363902544207</v>
+        <v>0.024492133283287587</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
@@ -3872,31 +3875,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E11" t="s">
         <v>187</v>
       </c>
       <c r="F11" t="n">
-        <v>0.028285715303666192</v>
+        <v>0.02836871990211498</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
@@ -3904,31 +3907,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E12" t="s">
         <v>187</v>
       </c>
       <c r="F12" t="n">
-        <v>0.028285715303666192</v>
+        <v>0.02836871990211498</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I12" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J12" t="n">
         <v>1.0</v>
@@ -3945,22 +3948,22 @@
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E13" t="s">
         <v>187</v>
       </c>
       <c r="F13" t="n">
-        <v>0.028285715303666192</v>
+        <v>0.02836871990211498</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J13" t="n">
         <v>1.0</v>
@@ -3977,22 +3980,22 @@
         <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F14" t="n">
-        <v>0.029732256628628995</v>
+        <v>0.02981945693766963</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J14" t="n">
         <v>1.0</v>
@@ -4000,31 +4003,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F15" t="n">
-        <v>0.030214077978533926</v>
+        <v>0.030302674740215974</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J15" t="n">
         <v>1.0</v>
@@ -4041,22 +4044,22 @@
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E16" t="s">
         <v>184</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03310123873477688</v>
+        <v>0.03319819200574492</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J16" t="n">
         <v>1.0</v>
@@ -4064,31 +4067,31 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D17" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E17" t="s">
         <v>173</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03502242789371701</v>
+        <v>0.035124931050854014</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J17" t="n">
         <v>1.0</v>
@@ -4096,31 +4099,31 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E18" t="s">
         <v>189</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04029093699446662</v>
+        <v>0.04040861544729979</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J18" t="n">
         <v>1.0</v>
@@ -4128,31 +4131,31 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D19" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E19" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F19" t="n">
-        <v>0.040768820257509275</v>
+        <v>0.040887871975981205</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J19" t="n">
         <v>1.0</v>
@@ -4169,22 +4172,22 @@
         <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E20" t="s">
         <v>174</v>
       </c>
       <c r="F20" t="n">
-        <v>0.042201399270907713</v>
+        <v>0.04232456449146549</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I20" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J20" t="n">
         <v>1.0</v>
@@ -4192,31 +4195,31 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D21" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E21" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04315556007783683</v>
+        <v>0.04328146239137953</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I21" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J21" t="n">
         <v>1.0</v>
@@ -4224,31 +4227,31 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C22" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D22" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E22" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04315556007783683</v>
+        <v>0.04328146239137953</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I22" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J22" t="n">
         <v>1.0</v>
@@ -4256,31 +4259,31 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E23" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04315556007783683</v>
+        <v>0.04328146239137953</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I23" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J23" t="n">
         <v>1.0</v>
@@ -4297,22 +4300,22 @@
         <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E24" t="s">
         <v>201</v>
       </c>
       <c r="F24" t="n">
-        <v>0.044109007804537304</v>
+        <v>0.04423764302136135</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J24" t="n">
         <v>1.0</v>
@@ -4329,22 +4332,22 @@
         <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E25" t="s">
         <v>181</v>
       </c>
       <c r="F25" t="n">
-        <v>0.046013765438613685</v>
+        <v>0.04614785390552867</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J25" t="n">
         <v>1.0</v>
@@ -4352,31 +4355,31 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C26" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D26" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04648950972713717</v>
+        <v>0.046624958892946156</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I26" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J26" t="n">
         <v>1.0</v>
@@ -4384,31 +4387,31 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D27" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E27" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04696507605645028</v>
+        <v>0.04710188487649147</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I27" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J27" t="n">
         <v>1.0</v>
@@ -4416,31 +4419,31 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D28" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E28" t="s">
         <v>179</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04791567501497784</v>
+        <v>0.04805520001107544</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I28" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J28" t="n">
         <v>1.0</v>
@@ -4448,31 +4451,31 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C29" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D29" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E29" t="s">
         <v>172</v>
       </c>
       <c r="F29" t="n">
-        <v>0.04886556266920594</v>
+        <v>0.04900779966744562</v>
       </c>
       <c r="G29" t="n">
-        <v>0.09598592667165452</v>
+        <v>0.0962653207753396</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0496003831604722</v>
+        <v>0.04974475906094104</v>
       </c>
       <c r="I29" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J29" t="n">
         <v>1.0</v>
@@ -4489,22 +4492,22 @@
         <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E30" t="s">
         <v>191</v>
       </c>
       <c r="F30" t="n">
-        <v>0.052184573061000994</v>
+        <v>0.052336269242699296</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0971773108405497</v>
+        <v>0.0974582934998623</v>
       </c>
       <c r="H30" t="n">
-        <v>0.050216026654446744</v>
+        <v>0.05036122343533555</v>
       </c>
       <c r="I30" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J30" t="n">
         <v>1.0</v>
@@ -4512,31 +4515,31 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C31" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D31" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E31" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F31" t="n">
-        <v>0.055022518882634985</v>
+        <v>0.05518228237340772</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0971773108405497</v>
+        <v>0.0974582934998623</v>
       </c>
       <c r="H31" t="n">
-        <v>0.050216026654446744</v>
+        <v>0.05036122343533555</v>
       </c>
       <c r="I31" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J31" t="n">
         <v>1.0</v>
@@ -4544,31 +4547,31 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C32" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D32" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E32" t="s">
         <v>188</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05549488953053183</v>
+        <v>0.05565599393902654</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0971773108405497</v>
+        <v>0.0974582934998623</v>
       </c>
       <c r="H32" t="n">
-        <v>0.050216026654446744</v>
+        <v>0.05036122343533555</v>
       </c>
       <c r="I32" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J32" t="n">
         <v>1.0</v>
@@ -4576,31 +4579,31 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C33" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D33" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E33" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06020886188680785</v>
+        <v>0.06038331849268519</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0971773108405497</v>
+        <v>0.0974582934998623</v>
       </c>
       <c r="H33" t="n">
-        <v>0.050216026654446744</v>
+        <v>0.05036122343533555</v>
       </c>
       <c r="I33" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J33" t="n">
         <v>1.0</v>
@@ -4617,22 +4620,22 @@
         <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E34" t="s">
         <v>167</v>
       </c>
       <c r="F34" t="n">
-        <v>0.06161960643162623</v>
+        <v>0.061798048530537386</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0971773108405497</v>
+        <v>0.0974582934998623</v>
       </c>
       <c r="H34" t="n">
-        <v>0.050216026654446744</v>
+        <v>0.05036122343533555</v>
       </c>
       <c r="I34" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J34" t="n">
         <v>1.0</v>
@@ -4640,31 +4643,31 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D35" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E35" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F35" t="n">
-        <v>0.06208950147096959</v>
+        <v>0.062269270002897614</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0971773108405497</v>
+        <v>0.0974582934998623</v>
       </c>
       <c r="H35" t="n">
-        <v>0.050216026654446744</v>
+        <v>0.05036122343533555</v>
       </c>
       <c r="I35" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J35" t="n">
         <v>1.0</v>
@@ -4672,31 +4675,31 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C36" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D36" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E36" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06349812778111175</v>
+        <v>0.06368186942360377</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0971773108405497</v>
+        <v>0.0974582934998623</v>
       </c>
       <c r="H36" t="n">
-        <v>0.050216026654446744</v>
+        <v>0.05036122343533555</v>
       </c>
       <c r="I36" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J36" t="n">
         <v>1.0</v>
@@ -4704,31 +4707,31 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C37" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E37" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06396731709585068</v>
+        <v>0.06415238104700882</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0971773108405497</v>
+        <v>0.0974582934998623</v>
       </c>
       <c r="H37" t="n">
-        <v>0.050216026654446744</v>
+        <v>0.05036122343533555</v>
       </c>
       <c r="I37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J37" t="n">
         <v>1.0</v>
@@ -4745,22 +4748,22 @@
         <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E38" t="s">
         <v>180</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06537382729273344</v>
+        <v>0.06556285199081646</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0971773108405497</v>
+        <v>0.0974582934998623</v>
       </c>
       <c r="H38" t="n">
-        <v>0.050216026654446744</v>
+        <v>0.05036122343533555</v>
       </c>
       <c r="I38" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J38" t="n">
         <v>1.0</v>
@@ -4777,22 +4780,22 @@
         <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E39" t="s">
         <v>213</v>
       </c>
       <c r="F39" t="n">
-        <v>0.06818209179853651</v>
+        <v>0.06837901021991433</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09868460655051338</v>
+        <v>0.09896962005513917</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05099491630361457</v>
+        <v>0.051142196009354206</v>
       </c>
       <c r="I39" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J39" t="n">
         <v>1.0</v>
@@ -4809,22 +4812,22 @@
         <v>135</v>
       </c>
       <c r="D40" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E40" t="s">
         <v>215</v>
       </c>
       <c r="F40" t="n">
-        <v>0.07051747392552665</v>
+        <v>0.07072094221509706</v>
       </c>
       <c r="G40" t="n">
-        <v>0.09944771963856323</v>
+        <v>0.09973466209821381</v>
       </c>
       <c r="H40" t="n">
-        <v>0.05138925225342023</v>
+        <v>0.05153752873974685</v>
       </c>
       <c r="I40" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J40" t="n">
         <v>1.0</v>
@@ -4832,31 +4835,31 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C41" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D41" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E41" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0733141347746935</v>
+        <v>0.07352542909782289</v>
       </c>
       <c r="G41" t="n">
-        <v>0.10080693531520357</v>
+        <v>0.10109746500950648</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05209162207675592</v>
+        <v>0.052241752253716266</v>
       </c>
       <c r="I41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J41" t="n">
         <v>1.0</v>
@@ -4864,31 +4867,31 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C42" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D42" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E42" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07981513186112954</v>
+        <v>0.08004454395623206</v>
       </c>
       <c r="G42" t="n">
-        <v>0.10512618312281588</v>
+        <v>0.1054282884099511</v>
       </c>
       <c r="H42" t="n">
-        <v>0.05432357788164649</v>
+        <v>0.05447968970466373</v>
       </c>
       <c r="I42" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J42" t="n">
         <v>1.0</v>
@@ -4905,22 +4908,22 @@
         <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E43" t="s">
         <v>169</v>
       </c>
       <c r="F43" t="n">
-        <v>0.08027817620287758</v>
+        <v>0.08050887478578084</v>
       </c>
       <c r="G43" t="n">
-        <v>0.10512618312281588</v>
+        <v>0.1054282884099511</v>
       </c>
       <c r="H43" t="n">
-        <v>0.05432357788164649</v>
+        <v>0.05447968970466373</v>
       </c>
       <c r="I43" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J43" t="n">
         <v>1.0</v>
@@ -4937,22 +4940,22 @@
         <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E44" t="s">
         <v>218</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08443771556000779</v>
+        <v>0.0846799468408932</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1060185687447586</v>
+        <v>0.10632241669097074</v>
       </c>
       <c r="H44" t="n">
-        <v>0.05478471494944463</v>
+        <v>0.05494172728528631</v>
       </c>
       <c r="I44" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J44" t="n">
         <v>1.0</v>
@@ -4960,31 +4963,31 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C45" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D45" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E45" t="s">
         <v>177</v>
       </c>
       <c r="F45" t="n">
-        <v>0.08489901410362288</v>
+        <v>0.08514252172562287</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1060185687447586</v>
+        <v>0.10632241669097074</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05478471494944463</v>
+        <v>0.05494172728528631</v>
       </c>
       <c r="I45" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J45" t="n">
         <v>1.0</v>
@@ -5001,22 +5004,22 @@
         <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E46" t="s">
         <v>170</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08674246533662067</v>
+        <v>0.08699106820170333</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1060185687447586</v>
+        <v>0.10632241669097074</v>
       </c>
       <c r="H46" t="n">
-        <v>0.05478471494944463</v>
+        <v>0.05494172728528631</v>
       </c>
       <c r="I46" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J46" t="n">
         <v>1.0</v>
@@ -5024,31 +5027,31 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C47" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D47" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E47" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09454607903689394</v>
+        <v>0.0948161565274287</v>
       </c>
       <c r="G47" t="n">
-        <v>0.11304422493541666</v>
+        <v>0.11336714367409953</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0584151975742823</v>
+        <v>0.058582064673697365</v>
       </c>
       <c r="I47" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J47" t="n">
         <v>1.0</v>
@@ -5065,22 +5068,22 @@
         <v>137</v>
       </c>
       <c r="D48" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E48" t="s">
         <v>217</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0977447524572943</v>
+        <v>0.0980235879650313</v>
       </c>
       <c r="G48" t="n">
-        <v>0.11380509473444746</v>
+        <v>0.11412924069008436</v>
       </c>
       <c r="H48" t="n">
-        <v>0.058808374312537444</v>
+        <v>0.05897587557190963</v>
       </c>
       <c r="I48" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J48" t="n">
         <v>1.0</v>
@@ -5088,31 +5091,31 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C49" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D49" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E49" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F49" t="n">
-        <v>0.10093494348106324</v>
+        <v>0.10122248792487543</v>
       </c>
       <c r="G49" t="n">
-        <v>0.11380509473444746</v>
+        <v>0.11412924069008436</v>
       </c>
       <c r="H49" t="n">
-        <v>0.058808374312537444</v>
+        <v>0.05897587557190963</v>
       </c>
       <c r="I49" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J49" t="n">
         <v>1.0</v>
@@ -5120,31 +5123,31 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B50" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C50" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D50" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E50" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F50" t="n">
-        <v>0.10138999349068956</v>
+        <v>0.10167877806934789</v>
       </c>
       <c r="G50" t="n">
-        <v>0.11380509473444746</v>
+        <v>0.11412924069008436</v>
       </c>
       <c r="H50" t="n">
-        <v>0.058808374312537444</v>
+        <v>0.05897587557190963</v>
       </c>
       <c r="I50" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J50" t="n">
         <v>1.0</v>
@@ -5161,22 +5164,22 @@
         <v>118</v>
       </c>
       <c r="D51" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E51" t="s">
         <v>203</v>
       </c>
       <c r="F51" t="n">
-        <v>0.10411666711749201</v>
+        <v>0.10441287154903034</v>
       </c>
       <c r="G51" t="n">
-        <v>0.11452833382924123</v>
+        <v>0.11485415870393338</v>
       </c>
       <c r="H51" t="n">
-        <v>0.059182105519416515</v>
+        <v>0.05935047435418567</v>
       </c>
       <c r="I51" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J51" t="n">
         <v>1.0</v>
@@ -5184,31 +5187,31 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B52" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C52" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D52" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E52" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F52" t="n">
-        <v>0.11180855038742443</v>
+        <v>0.10804861550256217</v>
       </c>
       <c r="G52" t="n">
-        <v>0.12057784845702635</v>
+        <v>0.11652301671844939</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06230817049453993</v>
+        <v>0.06021285074446189</v>
       </c>
       <c r="I52" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J52" t="n">
         <v>1.0</v>
@@ -5216,31 +5219,31 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B53" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C53" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D53" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E53" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1265983463549677</v>
+        <v>0.12695499607633698</v>
       </c>
       <c r="G53" t="n">
-        <v>0.13390209710621584</v>
+        <v>0.13427932277304874</v>
       </c>
       <c r="H53" t="n">
-        <v>0.06919342816971918</v>
+        <v>0.06938835817937447</v>
       </c>
       <c r="I53" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J53" t="n">
         <v>1.0</v>
@@ -5248,31 +5251,31 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C54" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D54" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E54" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F54" t="n">
-        <v>0.13148698383313573</v>
+        <v>0.13185660205974237</v>
       </c>
       <c r="G54" t="n">
-        <v>0.13644875680797103</v>
+        <v>0.13683232289218547</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0705094054318702</v>
+        <v>0.0707076118294547</v>
       </c>
       <c r="I54" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J54" t="n">
         <v>1.0</v>
@@ -5280,31 +5283,31 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B55" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C55" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D55" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E55" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1616856172880471</v>
+        <v>0.16040066484665516</v>
       </c>
       <c r="G55" t="n">
-        <v>0.16384288431280747</v>
+        <v>0.1621339188515626</v>
       </c>
       <c r="H55" t="n">
-        <v>0.08466522251570914</v>
+        <v>0.08378212074626201</v>
       </c>
       <c r="I55" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J55" t="n">
         <v>1.0</v>
@@ -5312,31 +5315,31 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B56" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C56" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D56" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E56" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F56" t="n">
-        <v>0.16384288431280747</v>
+        <v>0.1621339188515626</v>
       </c>
       <c r="G56" t="n">
-        <v>0.16384288431280747</v>
+        <v>0.1621339188515626</v>
       </c>
       <c r="H56" t="n">
-        <v>0.08466522251570914</v>
+        <v>0.08378212074626201</v>
       </c>
       <c r="I56" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J56" t="n">
         <v>1.0</v>
